--- a/doc/ООО «Товары для животных»_(GanttPRO.com)_05.10.2022 10 29.xlsx
+++ b/doc/ООО «Товары для животных»_(GanttPRO.com)_05.10.2022 10 29.xlsx
@@ -1,12 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88BB005D-CC2E-4F3A-9699-68FB2425BE69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="ООО «Товары для животных»" state="visible" r:id="rId4"/>
+    <sheet name="ООО «Товары для животных»" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027" fullCalcOnLoad="1"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -355,33 +359,41 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <color rgb="FFFFFFFF"/>
-    </font>
-    <font>
-      <b/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="9"/>
-    </font>
-    <font>
-      <b/>
-      <color rgb="FF222222"/>
-      <sz val="9"/>
-    </font>
-    <font>
-      <b/>
-    </font>
-    <font>
+      <sz val="11"/>
       <color rgb="FF888888"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="10">
@@ -393,17 +405,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00564c"/>
+        <fgColor rgb="FF00564C"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF1a7367"/>
+        <fgColor rgb="FF1A7367"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFdafff0"/>
+        <fgColor rgb="FFDAFFF0"/>
       </patternFill>
     </fill>
     <fill>
@@ -455,18 +467,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" indent="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -488,6 +491,17 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment indent="3"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -508,7 +522,7 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -518,7 +532,7 @@
     <xdr:ext cx="2286000" cy="571500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Picture 1">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
@@ -871,9 +885,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W44"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7:I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
@@ -885,18 +904,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
       <c r="K1" s="1" t="s">
         <v>0</v>
       </c>
@@ -938,43 +957,43 @@
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="2" t="s">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
       <c r="K3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1016,176 +1035,176 @@
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="4">
-        <v>44839.31225777778</v>
-      </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="14">
+        <v>44839.312257777783</v>
+      </c>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="P5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="Q5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="R5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="S5" s="5" t="s">
+      <c r="S5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="T5" s="5" t="s">
+      <c r="T5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="U5" s="5" t="s">
+      <c r="U5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="V5" s="5" t="s">
+      <c r="V5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="W5" s="5" t="s">
+      <c r="W5" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="8">
+      <c r="D6" s="15"/>
+      <c r="E6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
         <v>44838.5</v>
       </c>
-      <c r="G6" s="8">
-        <v>44839.54166666667</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7">
+      <c r="G6" s="5">
+        <v>44839.541666666672</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>100</v>
+      </c>
+      <c r="J6" s="4">
         <v>5</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="4">
         <v>208</v>
       </c>
-      <c r="L6" s="7">
-        <v>0</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="7">
-        <v>0</v>
-      </c>
-      <c r="R6" s="7">
-        <v>0</v>
-      </c>
-      <c r="S6" s="8">
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>0</v>
+      </c>
+      <c r="R6" s="4">
+        <v>0</v>
+      </c>
+      <c r="S6" s="5">
         <v>44839.3909375</v>
       </c>
-      <c r="T6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="U6" s="7" t="s">
+      <c r="T6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="U6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="V6" s="7" t="s">
+      <c r="V6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="W6" s="7">
+      <c r="W6" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B7" t="s">
@@ -1200,17 +1219,17 @@
       <c r="E7" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="7">
         <v>44838.5</v>
       </c>
-      <c r="G7" s="10">
-        <v>44838.54166666667</v>
+      <c r="G7" s="7">
+        <v>44838.541666666672</v>
       </c>
       <c r="H7" t="s">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -1239,7 +1258,7 @@
       <c r="R7">
         <v>0</v>
       </c>
-      <c r="S7" s="10">
+      <c r="S7" s="7">
         <v>44839.3909375</v>
       </c>
       <c r="T7" t="s">
@@ -1256,7 +1275,7 @@
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B8" t="s">
@@ -1271,17 +1290,17 @@
       <c r="E8" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="7">
         <v>44839.5</v>
       </c>
-      <c r="G8" s="10">
-        <v>44839.54166666667</v>
+      <c r="G8" s="7">
+        <v>44839.541666666672</v>
       </c>
       <c r="H8" t="s">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -1310,7 +1329,7 @@
       <c r="R8">
         <v>0</v>
       </c>
-      <c r="S8" s="10">
+      <c r="S8" s="7">
         <v>44839.3909375</v>
       </c>
       <c r="T8" t="s">
@@ -1327,7 +1346,7 @@
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B9" t="s">
@@ -1342,17 +1361,17 @@
       <c r="E9" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="7">
         <v>44838.5</v>
       </c>
-      <c r="G9" s="10">
-        <v>44838.54166666667</v>
+      <c r="G9" s="7">
+        <v>44838.541666666672</v>
       </c>
       <c r="H9" t="s">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -1381,7 +1400,7 @@
       <c r="R9">
         <v>0</v>
       </c>
-      <c r="S9" s="10">
+      <c r="S9" s="7">
         <v>44839.3909375</v>
       </c>
       <c r="T9" t="s">
@@ -1398,7 +1417,7 @@
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B10" t="s">
@@ -1413,17 +1432,17 @@
       <c r="E10" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="7">
         <v>44839.375</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="7">
         <v>44839.375</v>
       </c>
       <c r="H10" t="s">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1452,7 +1471,7 @@
       <c r="R10">
         <v>0</v>
       </c>
-      <c r="S10" s="10">
+      <c r="S10" s="7">
         <v>44839.3909375</v>
       </c>
       <c r="T10" t="s">
@@ -1469,76 +1488,76 @@
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="8">
+      <c r="D11" s="15"/>
+      <c r="E11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
         <v>44845.5</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="5">
         <v>44846.375</v>
       </c>
-      <c r="H11" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7">
+      <c r="H11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>100</v>
+      </c>
+      <c r="J11" s="4">
         <v>1</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="4">
         <v>40</v>
       </c>
-      <c r="L11" s="7">
-        <v>0</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="7">
-        <v>0</v>
-      </c>
-      <c r="R11" s="7">
-        <v>0</v>
-      </c>
-      <c r="S11" s="8">
+      <c r="L11" s="4">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>0</v>
+      </c>
+      <c r="R11" s="4">
+        <v>0</v>
+      </c>
+      <c r="S11" s="5">
         <v>44839.3909375</v>
       </c>
-      <c r="T11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="U11" s="7" t="s">
+      <c r="T11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="U11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="V11" s="7" t="s">
+      <c r="V11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="W11" s="7">
+      <c r="W11" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B12" t="s">
@@ -1553,17 +1572,17 @@
       <c r="E12" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="7">
         <v>44845.5</v>
       </c>
-      <c r="G12" s="10">
-        <v>44845.54166666667</v>
+      <c r="G12" s="7">
+        <v>44845.541666666672</v>
       </c>
       <c r="H12" t="s">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -1592,7 +1611,7 @@
       <c r="R12">
         <v>0</v>
       </c>
-      <c r="S12" s="10">
+      <c r="S12" s="7">
         <v>44839.3909375</v>
       </c>
       <c r="T12" t="s">
@@ -1609,7 +1628,7 @@
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B13" t="s">
@@ -1624,17 +1643,17 @@
       <c r="E13" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="7">
         <v>44846.375</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="7">
         <v>44846.375</v>
       </c>
       <c r="H13" t="s">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1663,7 +1682,7 @@
       <c r="R13">
         <v>0</v>
       </c>
-      <c r="S13" s="10">
+      <c r="S13" s="7">
         <v>44839.3909375</v>
       </c>
       <c r="T13" t="s">
@@ -1680,76 +1699,76 @@
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="7" t="s">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="8">
+      <c r="D14" s="15"/>
+      <c r="E14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
         <v>44846.375</v>
       </c>
-      <c r="G14" s="8">
-        <v>44846.41736111111</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7">
+      <c r="G14" s="5">
+        <v>44846.417361111111</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <v>100</v>
+      </c>
+      <c r="J14" s="4">
         <v>1.02</v>
       </c>
-      <c r="K14" s="7">
-        <v>136.02</v>
-      </c>
-      <c r="L14" s="7">
-        <v>0</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="P14" s="7" t="s">
+      <c r="K14" s="4">
+        <v>136.02000000000001</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="Q14" s="7">
-        <v>0</v>
-      </c>
-      <c r="R14" s="7">
-        <v>0</v>
-      </c>
-      <c r="S14" s="8">
+      <c r="Q14" s="4">
+        <v>0</v>
+      </c>
+      <c r="R14" s="4">
+        <v>0</v>
+      </c>
+      <c r="S14" s="5">
         <v>44839.3909375</v>
       </c>
-      <c r="T14" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="U14" s="7" t="s">
+      <c r="T14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="U14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="V14" s="7" t="s">
+      <c r="V14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="W14" s="7">
+      <c r="W14" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B15" t="s">
@@ -1764,17 +1783,17 @@
       <c r="E15" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="7">
         <v>44846.375</v>
       </c>
-      <c r="G15" s="10">
-        <v>44846.41666666667</v>
+      <c r="G15" s="7">
+        <v>44846.416666666672</v>
       </c>
       <c r="H15" t="s">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -1803,7 +1822,7 @@
       <c r="R15">
         <v>0</v>
       </c>
-      <c r="S15" s="10">
+      <c r="S15" s="7">
         <v>44839.3909375</v>
       </c>
       <c r="T15" t="s">
@@ -1820,7 +1839,7 @@
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B16" t="s">
@@ -1835,17 +1854,17 @@
       <c r="E16" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="7">
         <v>44846.375</v>
       </c>
-      <c r="G16" s="10">
-        <v>44846.41666666667</v>
+      <c r="G16" s="7">
+        <v>44846.416666666672</v>
       </c>
       <c r="H16" t="s">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -1874,8 +1893,8 @@
       <c r="R16">
         <v>0</v>
       </c>
-      <c r="S16" s="10">
-        <v>44839.39481481482</v>
+      <c r="S16" s="7">
+        <v>44839.394814814819</v>
       </c>
       <c r="T16" t="s">
         <v>27</v>
@@ -1891,7 +1910,7 @@
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B17" t="s">
@@ -1906,17 +1925,17 @@
       <c r="E17" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="10">
-        <v>44846.41666666667</v>
-      </c>
-      <c r="G17" s="10">
-        <v>44846.41736111111</v>
+      <c r="F17" s="7">
+        <v>44846.416666666672</v>
+      </c>
+      <c r="G17" s="7">
+        <v>44846.417361111111</v>
       </c>
       <c r="H17" t="s">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J17">
         <v>0.02</v>
@@ -1945,7 +1964,7 @@
       <c r="R17">
         <v>0</v>
       </c>
-      <c r="S17" s="10">
+      <c r="S17" s="7">
         <v>44839.3909375</v>
       </c>
       <c r="T17" t="s">
@@ -1962,76 +1981,76 @@
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="7" t="s">
+      <c r="A18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F18" s="8">
-        <v>44846.41736111111</v>
-      </c>
-      <c r="G18" s="8">
+      <c r="D18" s="15"/>
+      <c r="E18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5">
+        <v>44846.417361111111</v>
+      </c>
+      <c r="G18" s="5">
         <v>44852.459027777775</v>
       </c>
-      <c r="H18" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
-      <c r="J18" s="7">
+      <c r="H18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <v>100</v>
+      </c>
+      <c r="J18" s="4">
         <v>5</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="4">
         <v>128</v>
       </c>
-      <c r="L18" s="7">
-        <v>0</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="N18" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="P18" s="7" t="s">
+      <c r="L18" s="4">
+        <v>0</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P18" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="Q18" s="7">
-        <v>0</v>
-      </c>
-      <c r="R18" s="7">
-        <v>0</v>
-      </c>
-      <c r="S18" s="8">
+      <c r="Q18" s="4">
+        <v>0</v>
+      </c>
+      <c r="R18" s="4">
+        <v>0</v>
+      </c>
+      <c r="S18" s="5">
         <v>44839.3909375</v>
       </c>
-      <c r="T18" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="U18" s="7" t="s">
+      <c r="T18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="U18" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="V18" s="7" t="s">
+      <c r="V18" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="W18" s="7">
+      <c r="W18" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B19" t="s">
@@ -2046,17 +2065,17 @@
       <c r="E19" t="s">
         <v>62</v>
       </c>
-      <c r="F19" s="10">
-        <v>44846.41736111111</v>
-      </c>
-      <c r="G19" s="10">
+      <c r="F19" s="7">
+        <v>44846.417361111111</v>
+      </c>
+      <c r="G19" s="7">
         <v>44846.459027777775</v>
       </c>
       <c r="H19" t="s">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -2085,7 +2104,7 @@
       <c r="R19">
         <v>0</v>
       </c>
-      <c r="S19" s="10">
+      <c r="S19" s="7">
         <v>44839.3909375</v>
       </c>
       <c r="T19" t="s">
@@ -2102,7 +2121,7 @@
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B20" t="s">
@@ -2117,17 +2136,17 @@
       <c r="E20" t="s">
         <v>62</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="7">
         <v>44846.459027777775</v>
       </c>
-      <c r="G20" s="10">
-        <v>44846.50069444445</v>
+      <c r="G20" s="7">
+        <v>44846.500694444447</v>
       </c>
       <c r="H20" t="s">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -2156,7 +2175,7 @@
       <c r="R20">
         <v>0</v>
       </c>
-      <c r="S20" s="10">
+      <c r="S20" s="7">
         <v>44839.3909375</v>
       </c>
       <c r="T20" t="s">
@@ -2173,7 +2192,7 @@
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B21" t="s">
@@ -2188,17 +2207,17 @@
       <c r="E21" t="s">
         <v>62</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="7">
         <v>44846.5</v>
       </c>
-      <c r="G21" s="10">
-        <v>44846.54166666667</v>
+      <c r="G21" s="7">
+        <v>44846.541666666672</v>
       </c>
       <c r="H21" t="s">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -2227,7 +2246,7 @@
       <c r="R21">
         <v>0</v>
       </c>
-      <c r="S21" s="10">
+      <c r="S21" s="7">
         <v>44839.3909375</v>
       </c>
       <c r="T21" t="s">
@@ -2244,7 +2263,7 @@
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B22" t="s">
@@ -2259,17 +2278,17 @@
       <c r="E22" t="s">
         <v>62</v>
       </c>
-      <c r="F22" s="10">
-        <v>44852.41736111111</v>
-      </c>
-      <c r="G22" s="10">
+      <c r="F22" s="7">
+        <v>44852.417361111111</v>
+      </c>
+      <c r="G22" s="7">
         <v>44852.459027777775</v>
       </c>
       <c r="H22" t="s">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -2298,7 +2317,7 @@
       <c r="R22">
         <v>0</v>
       </c>
-      <c r="S22" s="10">
+      <c r="S22" s="7">
         <v>44839.3909375</v>
       </c>
       <c r="T22" t="s">
@@ -2315,7 +2334,7 @@
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B23" t="s">
@@ -2330,17 +2349,17 @@
       <c r="E23" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="7">
         <v>44852.459027777775</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G23" s="7">
         <v>44852.459027777775</v>
       </c>
       <c r="H23" t="s">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -2369,7 +2388,7 @@
       <c r="R23">
         <v>0</v>
       </c>
-      <c r="S23" s="10">
+      <c r="S23" s="7">
         <v>44839.3909375</v>
       </c>
       <c r="T23" t="s">
@@ -2386,76 +2405,76 @@
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="7" t="s">
+      <c r="A24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F24" s="8">
+      <c r="D24" s="15"/>
+      <c r="E24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" s="5">
         <v>44852.459027777775</v>
       </c>
-      <c r="G24" s="8">
-        <v>44859.45833333333</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7">
+      <c r="G24" s="5">
+        <v>44859.458333333328</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I24" s="4">
+        <v>95</v>
+      </c>
+      <c r="J24" s="4">
         <v>7.98</v>
       </c>
-      <c r="K24" s="7">
+      <c r="K24" s="4">
         <v>472</v>
       </c>
-      <c r="L24" s="7">
-        <v>0</v>
-      </c>
-      <c r="M24" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="P24" s="7" t="s">
+      <c r="L24" s="4">
+        <v>0</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P24" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="Q24" s="7">
-        <v>0</v>
-      </c>
-      <c r="R24" s="7">
-        <v>0</v>
-      </c>
-      <c r="S24" s="8">
+      <c r="Q24" s="4">
+        <v>0</v>
+      </c>
+      <c r="R24" s="4">
+        <v>0</v>
+      </c>
+      <c r="S24" s="5">
         <v>44839.3909375</v>
       </c>
-      <c r="T24" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="U24" s="7" t="s">
+      <c r="T24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="U24" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="V24" s="7" t="s">
+      <c r="V24" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="W24" s="7">
+      <c r="W24" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B25" t="s">
@@ -2470,17 +2489,17 @@
       <c r="E25" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="7">
         <v>44852.459027777775</v>
       </c>
-      <c r="G25" s="10">
-        <v>44852.50069444445</v>
+      <c r="G25" s="7">
+        <v>44852.500694444447</v>
       </c>
       <c r="H25" t="s">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -2509,7 +2528,7 @@
       <c r="R25">
         <v>0</v>
       </c>
-      <c r="S25" s="10">
+      <c r="S25" s="7">
         <v>44839.3909375</v>
       </c>
       <c r="T25" t="s">
@@ -2526,7 +2545,7 @@
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B26" t="s">
@@ -2541,17 +2560,17 @@
       <c r="E26" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="7">
         <v>44852.5</v>
       </c>
-      <c r="G26" s="10">
-        <v>44852.54166666667</v>
+      <c r="G26" s="7">
+        <v>44852.541666666672</v>
       </c>
       <c r="H26" t="s">
         <v>0</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -2580,7 +2599,7 @@
       <c r="R26">
         <v>0</v>
       </c>
-      <c r="S26" s="10">
+      <c r="S26" s="7">
         <v>44839.3909375</v>
       </c>
       <c r="T26" t="s">
@@ -2597,7 +2616,7 @@
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B27" t="s">
@@ -2612,17 +2631,17 @@
       <c r="E27" t="s">
         <v>81</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F27" s="7">
         <v>44853.375</v>
       </c>
-      <c r="G27" s="10">
-        <v>44853.41666666667</v>
+      <c r="G27" s="7">
+        <v>44853.416666666672</v>
       </c>
       <c r="H27" t="s">
         <v>0</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -2651,7 +2670,7 @@
       <c r="R27">
         <v>0</v>
       </c>
-      <c r="S27" s="10">
+      <c r="S27" s="7">
         <v>44839.3909375</v>
       </c>
       <c r="T27" t="s">
@@ -2668,7 +2687,7 @@
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B28" t="s">
@@ -2683,17 +2702,17 @@
       <c r="E28" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="10">
-        <v>44853.45833333333</v>
-      </c>
-      <c r="G28" s="10">
+      <c r="F28" s="7">
+        <v>44853.458333333328</v>
+      </c>
+      <c r="G28" s="7">
         <v>44853.5</v>
       </c>
       <c r="H28" t="s">
         <v>0</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -2722,7 +2741,7 @@
       <c r="R28">
         <v>0</v>
       </c>
-      <c r="S28" s="10">
+      <c r="S28" s="7">
         <v>44839.3909375</v>
       </c>
       <c r="T28" t="s">
@@ -2739,7 +2758,7 @@
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B29" t="s">
@@ -2754,17 +2773,17 @@
       <c r="E29" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29" s="7">
         <v>44859.375</v>
       </c>
-      <c r="G29" s="10">
-        <v>44859.41666666667</v>
+      <c r="G29" s="7">
+        <v>44859.416666666672</v>
       </c>
       <c r="H29" t="s">
         <v>0</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -2793,7 +2812,7 @@
       <c r="R29">
         <v>0</v>
       </c>
-      <c r="S29" s="10">
+      <c r="S29" s="7">
         <v>44839.3909375</v>
       </c>
       <c r="T29" t="s">
@@ -2810,7 +2829,7 @@
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B30" t="s">
@@ -2825,17 +2844,17 @@
       <c r="E30" t="s">
         <v>31</v>
       </c>
-      <c r="F30" s="10">
-        <v>44859.41666666667</v>
-      </c>
-      <c r="G30" s="10">
-        <v>44859.45833333333</v>
+      <c r="F30" s="7">
+        <v>44859.416666666672</v>
+      </c>
+      <c r="G30" s="7">
+        <v>44859.458333333328</v>
       </c>
       <c r="H30" t="s">
         <v>0</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -2864,7 +2883,7 @@
       <c r="R30">
         <v>0</v>
       </c>
-      <c r="S30" s="10">
+      <c r="S30" s="7">
         <v>44839.3909375</v>
       </c>
       <c r="T30" t="s">
@@ -2881,7 +2900,7 @@
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B31" t="s">
@@ -2896,17 +2915,17 @@
       <c r="E31" t="s">
         <v>27</v>
       </c>
-      <c r="F31" s="10">
-        <v>44859.45833333333</v>
-      </c>
-      <c r="G31" s="10">
-        <v>44859.45833333333</v>
+      <c r="F31" s="7">
+        <v>44859.458333333328</v>
+      </c>
+      <c r="G31" s="7">
+        <v>44859.458333333328</v>
       </c>
       <c r="H31" t="s">
         <v>0</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -2935,7 +2954,7 @@
       <c r="R31">
         <v>0</v>
       </c>
-      <c r="S31" s="10">
+      <c r="S31" s="7">
         <v>44839.3909375</v>
       </c>
       <c r="T31" t="s">
@@ -2952,76 +2971,76 @@
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" s="7" t="s">
+      <c r="A32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F32" s="8">
-        <v>44859.45833333333</v>
-      </c>
-      <c r="G32" s="8">
-        <v>44860.54166666667</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I32" s="7">
-        <v>0</v>
-      </c>
-      <c r="J32" s="7">
+      <c r="D32" s="15"/>
+      <c r="E32" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32" s="5">
+        <v>44859.458333333328</v>
+      </c>
+      <c r="G32" s="5">
+        <v>44860.541666666672</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I32" s="4">
+        <v>100</v>
+      </c>
+      <c r="J32" s="4">
         <v>6</v>
       </c>
-      <c r="K32" s="7">
+      <c r="K32" s="4">
         <v>168</v>
       </c>
-      <c r="L32" s="7">
-        <v>0</v>
-      </c>
-      <c r="M32" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="N32" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="P32" s="7" t="s">
+      <c r="L32" s="4">
+        <v>0</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O32" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P32" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="Q32" s="7">
-        <v>0</v>
-      </c>
-      <c r="R32" s="7">
-        <v>0</v>
-      </c>
-      <c r="S32" s="8">
+      <c r="Q32" s="4">
+        <v>0</v>
+      </c>
+      <c r="R32" s="4">
+        <v>0</v>
+      </c>
+      <c r="S32" s="5">
         <v>44839.3909375</v>
       </c>
-      <c r="T32" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="U32" s="7" t="s">
+      <c r="T32" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="U32" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="V32" s="7" t="s">
+      <c r="V32" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="W32" s="7">
+      <c r="W32" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B33" t="s">
@@ -3036,17 +3055,17 @@
       <c r="E33" t="s">
         <v>62</v>
       </c>
-      <c r="F33" s="10">
-        <v>44859.45833333333</v>
-      </c>
-      <c r="G33" s="10">
+      <c r="F33" s="7">
+        <v>44859.458333333328</v>
+      </c>
+      <c r="G33" s="7">
         <v>44859.5</v>
       </c>
       <c r="H33" t="s">
         <v>0</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -3075,7 +3094,7 @@
       <c r="R33">
         <v>0</v>
       </c>
-      <c r="S33" s="10">
+      <c r="S33" s="7">
         <v>44839.3909375</v>
       </c>
       <c r="T33" t="s">
@@ -3092,7 +3111,7 @@
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B34" t="s">
@@ -3107,17 +3126,17 @@
       <c r="E34" t="s">
         <v>62</v>
       </c>
-      <c r="F34" s="10">
-        <v>44859.49930555555</v>
-      </c>
-      <c r="G34" s="10">
+      <c r="F34" s="7">
+        <v>44859.499305555553</v>
+      </c>
+      <c r="G34" s="7">
         <v>44859.540972222225</v>
       </c>
       <c r="H34" t="s">
         <v>0</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J34">
         <v>1</v>
@@ -3146,7 +3165,7 @@
       <c r="R34">
         <v>0</v>
       </c>
-      <c r="S34" s="10">
+      <c r="S34" s="7">
         <v>44839.3909375</v>
       </c>
       <c r="T34" t="s">
@@ -3163,7 +3182,7 @@
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B35" t="s">
@@ -3178,17 +3197,17 @@
       <c r="E35" t="s">
         <v>62</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F35" s="7">
         <v>44860.375</v>
       </c>
-      <c r="G35" s="10">
-        <v>44860.41666666667</v>
+      <c r="G35" s="7">
+        <v>44860.416666666672</v>
       </c>
       <c r="H35" t="s">
         <v>0</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -3217,7 +3236,7 @@
       <c r="R35">
         <v>0</v>
       </c>
-      <c r="S35" s="10">
+      <c r="S35" s="7">
         <v>44839.3909375</v>
       </c>
       <c r="T35" t="s">
@@ -3234,7 +3253,7 @@
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B36" t="s">
@@ -3249,17 +3268,17 @@
       <c r="E36" t="s">
         <v>62</v>
       </c>
-      <c r="F36" s="10">
-        <v>44860.41666666667</v>
-      </c>
-      <c r="G36" s="10">
-        <v>44860.45833333333</v>
+      <c r="F36" s="7">
+        <v>44860.416666666672</v>
+      </c>
+      <c r="G36" s="7">
+        <v>44860.458333333328</v>
       </c>
       <c r="H36" t="s">
         <v>0</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J36">
         <v>1</v>
@@ -3288,7 +3307,7 @@
       <c r="R36">
         <v>0</v>
       </c>
-      <c r="S36" s="10">
+      <c r="S36" s="7">
         <v>44839.3909375</v>
       </c>
       <c r="T36" t="s">
@@ -3305,7 +3324,7 @@
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B37" t="s">
@@ -3320,17 +3339,17 @@
       <c r="E37" t="s">
         <v>62</v>
       </c>
-      <c r="F37" s="10">
+      <c r="F37" s="7">
         <v>44860.5</v>
       </c>
-      <c r="G37" s="10">
-        <v>44860.54166666667</v>
+      <c r="G37" s="7">
+        <v>44860.541666666672</v>
       </c>
       <c r="H37" t="s">
         <v>0</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J37">
         <v>1</v>
@@ -3359,7 +3378,7 @@
       <c r="R37">
         <v>0</v>
       </c>
-      <c r="S37" s="10">
+      <c r="S37" s="7">
         <v>44839.3909375</v>
       </c>
       <c r="T37" t="s">
@@ -3376,7 +3395,7 @@
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B38" t="s">
@@ -3391,17 +3410,17 @@
       <c r="E38" t="s">
         <v>103</v>
       </c>
-      <c r="F38" s="10">
+      <c r="F38" s="7">
         <v>44860.5</v>
       </c>
-      <c r="G38" s="10">
+      <c r="G38" s="7">
         <v>44860.5</v>
       </c>
       <c r="H38" t="s">
         <v>0</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -3430,7 +3449,7 @@
       <c r="R38">
         <v>0</v>
       </c>
-      <c r="S38" s="10">
+      <c r="S38" s="7">
         <v>44839.3909375</v>
       </c>
       <c r="T38" t="s">
@@ -3447,76 +3466,76 @@
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="7" t="s">
+      <c r="A39" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F39" s="8">
+      <c r="D39" s="15"/>
+      <c r="E39" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F39" s="5">
         <v>44866.375</v>
       </c>
-      <c r="G39" s="8">
-        <v>44866.45833333333</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I39" s="7">
-        <v>0</v>
-      </c>
-      <c r="J39" s="7">
+      <c r="G39" s="5">
+        <v>44866.458333333328</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I39" s="4">
+        <v>0</v>
+      </c>
+      <c r="J39" s="4">
         <v>2</v>
       </c>
-      <c r="K39" s="7">
+      <c r="K39" s="4">
         <v>192</v>
       </c>
-      <c r="L39" s="7">
-        <v>0</v>
-      </c>
-      <c r="M39" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="N39" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="P39" s="7" t="s">
+      <c r="L39" s="4">
+        <v>0</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N39" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O39" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P39" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q39" s="7">
-        <v>0</v>
-      </c>
-      <c r="R39" s="7">
-        <v>0</v>
-      </c>
-      <c r="S39" s="8">
+      <c r="Q39" s="4">
+        <v>0</v>
+      </c>
+      <c r="R39" s="4">
+        <v>0</v>
+      </c>
+      <c r="S39" s="5">
         <v>44839.3909375</v>
       </c>
-      <c r="T39" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="U39" s="7" t="s">
+      <c r="T39" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="U39" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="V39" s="7" t="s">
+      <c r="V39" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="W39" s="7">
+      <c r="W39" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B40" t="s">
@@ -3531,11 +3550,11 @@
       <c r="E40" t="s">
         <v>31</v>
       </c>
-      <c r="F40" s="10">
+      <c r="F40" s="7">
         <v>44866.375</v>
       </c>
-      <c r="G40" s="10">
-        <v>44866.41666666667</v>
+      <c r="G40" s="7">
+        <v>44866.416666666672</v>
       </c>
       <c r="H40" t="s">
         <v>0</v>
@@ -3570,7 +3589,7 @@
       <c r="R40">
         <v>0</v>
       </c>
-      <c r="S40" s="10">
+      <c r="S40" s="7">
         <v>44839.3909375</v>
       </c>
       <c r="T40" t="s">
@@ -3587,7 +3606,7 @@
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B41" t="s">
@@ -3602,11 +3621,11 @@
       <c r="E41" t="s">
         <v>31</v>
       </c>
-      <c r="F41" s="10">
-        <v>44866.41666666667</v>
-      </c>
-      <c r="G41" s="10">
-        <v>44866.45833333333</v>
+      <c r="F41" s="7">
+        <v>44866.416666666672</v>
+      </c>
+      <c r="G41" s="7">
+        <v>44866.458333333328</v>
       </c>
       <c r="H41" t="s">
         <v>0</v>
@@ -3641,7 +3660,7 @@
       <c r="R41">
         <v>0</v>
       </c>
-      <c r="S41" s="10">
+      <c r="S41" s="7">
         <v>44839.3909375</v>
       </c>
       <c r="T41" t="s">
@@ -3658,7 +3677,7 @@
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B42" t="s">
@@ -3673,11 +3692,11 @@
       <c r="E42" t="s">
         <v>31</v>
       </c>
-      <c r="F42" s="10">
-        <v>44866.45833333333</v>
-      </c>
-      <c r="G42" s="10">
-        <v>44866.45833333333</v>
+      <c r="F42" s="7">
+        <v>44866.458333333328</v>
+      </c>
+      <c r="G42" s="7">
+        <v>44866.458333333328</v>
       </c>
       <c r="H42" t="s">
         <v>0</v>
@@ -3712,7 +3731,7 @@
       <c r="R42">
         <v>0</v>
       </c>
-      <c r="S42" s="10">
+      <c r="S42" s="7">
         <v>44839.3909375</v>
       </c>
       <c r="T42" t="s">
@@ -3728,55 +3747,55 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14"/>
-      <c r="L44" s="14"/>
-      <c r="M44" s="14"/>
-      <c r="N44" s="14"/>
-      <c r="O44" s="14"/>
-      <c r="P44" s="14"/>
-      <c r="Q44" s="14"/>
-      <c r="R44" s="14"/>
-      <c r="S44" s="14"/>
-      <c r="T44" s="14"/>
-      <c r="U44" s="14"/>
-      <c r="V44" s="14"/>
-      <c r="W44" s="14"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="16"/>
+      <c r="N44" s="16"/>
+      <c r="O44" s="16"/>
+      <c r="P44" s="16"/>
+      <c r="Q44" s="16"/>
+      <c r="R44" s="16"/>
+      <c r="S44" s="16"/>
+      <c r="T44" s="16"/>
+      <c r="U44" s="16"/>
+      <c r="V44" s="16"/>
+      <c r="W44" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="A44:W44"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C32:D32"/>
     <mergeCell ref="A1:J3"/>
     <mergeCell ref="K2:W2"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="L4:W4"/>
     <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="A44:W44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/ООО «Товары для животных»_(GanttPRO.com)_05.10.2022 10 29.xlsx
+++ b/doc/ООО «Товары для животных»_(GanttPRO.com)_05.10.2022 10 29.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88BB005D-CC2E-4F3A-9699-68FB2425BE69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="ООО «Товары для животных»" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -359,7 +358,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -491,6 +490,8 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment indent="3"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -501,11 +502,9 @@
     <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -885,11 +884,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7:I10"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -904,18 +903,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
       <c r="K1" s="1" t="s">
         <v>0</v>
       </c>
@@ -957,43 +956,43 @@
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="12" t="s">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
       <c r="K3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1035,33 +1034,33 @@
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="14">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="16">
         <v>44839.312257777783</v>
       </c>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -1141,10 +1140,10 @@
       <c r="B6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="15"/>
+      <c r="D6" s="11"/>
       <c r="E6" s="4" t="s">
         <v>0</v>
       </c>
@@ -1494,10 +1493,10 @@
       <c r="B11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="15"/>
+      <c r="D11" s="11"/>
       <c r="E11" s="4" t="s">
         <v>0</v>
       </c>
@@ -1705,10 +1704,10 @@
       <c r="B14" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="15"/>
+      <c r="D14" s="11"/>
       <c r="E14" s="4" t="s">
         <v>0</v>
       </c>
@@ -1987,10 +1986,10 @@
       <c r="B18" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="15"/>
+      <c r="D18" s="11"/>
       <c r="E18" s="4" t="s">
         <v>0</v>
       </c>
@@ -2411,10 +2410,10 @@
       <c r="B24" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="15"/>
+      <c r="D24" s="11"/>
       <c r="E24" s="4" t="s">
         <v>0</v>
       </c>
@@ -2428,7 +2427,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="4">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="J24" s="4">
         <v>7.98</v>
@@ -2854,7 +2853,7 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -2925,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -2977,10 +2976,10 @@
       <c r="B32" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="D32" s="15"/>
+      <c r="D32" s="11"/>
       <c r="E32" s="4" t="s">
         <v>0</v>
       </c>
@@ -3472,10 +3471,10 @@
       <c r="B39" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="D39" s="15"/>
+      <c r="D39" s="11"/>
       <c r="E39" s="4" t="s">
         <v>0</v>
       </c>
@@ -3753,34 +3752,39 @@
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="16"/>
-      <c r="M44" s="16"/>
-      <c r="N44" s="16"/>
-      <c r="O44" s="16"/>
-      <c r="P44" s="16"/>
-      <c r="Q44" s="16"/>
-      <c r="R44" s="16"/>
-      <c r="S44" s="16"/>
-      <c r="T44" s="16"/>
-      <c r="U44" s="16"/>
-      <c r="V44" s="16"/>
-      <c r="W44" s="16"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="12"/>
+      <c r="T44" s="12"/>
+      <c r="U44" s="12"/>
+      <c r="V44" s="12"/>
+      <c r="W44" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K2:W2"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="L4:W4"/>
+    <mergeCell ref="C6:D6"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="A44:W44"/>
     <mergeCell ref="C11:D11"/>
@@ -3788,11 +3792,6 @@
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C32:D32"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K2:W2"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="L4:W4"/>
-    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
